--- a/Dataset/Folds/Fold_5/Excel/5.xlsx
+++ b/Dataset/Folds/Fold_5/Excel/5.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6310" uniqueCount="733">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6862" uniqueCount="787">
   <si>
     <t>Doi</t>
   </si>
@@ -2759,6 +2759,200 @@
   </si>
   <si>
     <t>[Temet M.%McMichael%NULL%2,                          Shauna%Clark%NULL%2,                          Sargis%Pogosjans%NULL%2,                          Meagan%Kay%NULL%2,                          James%Lewis%NULL%3,                          Atar%Baer%NULL%2,                          Vance%Kawakami%NULL%2,                          Margaret D.%Lukoff%NULL%2,                          Jessica%Ferro%NULL%2,                          Claire%Brostrom-Smith%NULL%2,                          Francis X.%Riedo%NULL%2,                          Denny%Russell%NULL%2,                          Brian%Hiatt%NULL%2,                          Patricia%Montgomery%NULL%2,                          Agam K.%Rao%NULL%2,                          Dustin W.%Currie%NULL%2,                          Eric J.%Chow%NULL%2,                          Farrell%Tobolowsky%NULL%2,                          Ana C.%Bardossy%NULL%2,                          Lisa P.%Oakley%NULL%2,                          Jesica R.%Jacobs%NULL%2,                          Noah G.%Schwartz%NULL%2,                          Nimalie%Stone%NULL%1,                          Sujan C.%Reddy%NULL%4,                          John A.%Jernigan%NULL%3,                          Margaret A.%Honein%NULL%2,                          Thomas A.%Clark%NULL%2,                          Jeffrey S.%Duchin%NULL%2,                          NULL%NULL%NULL%22,                          NULL%NULL%NULL%0,                          Meaghan S.%Fagalde%NULL%1,                          Jennifer L.%Lenahan%NULL%1,                          Emily B.%Maier%NULL%1,                          Kaitlyn J.%Sykes%NULL%1,                          Grace%Hatt%NULL%1,                          Holly%Whitney%NULL%1,                          Melinda%Huntington-Frazier%NULL%1,                          Elysia%Gonzales%NULL%1,                          Laura A.%Mummert%NULL%1,                          Hal Garcia%Smith%NULL%1,                          Steve%Stearns%NULL%1,                          Eileen%Benoliel%NULL%1,                          Shelly%McKeirnan%NULL%1,                          Jennifer L.%Morgan%NULL%1,                          Daniel%Smith%NULL%1,                          Michaela%Hope%NULL%1,                          Noel%Hatley%NULL%1,                          Leslie M.%Barnard%NULL%1,                          Leilani%Schwarcz%NULL%1,                          Nicole%Yarid%NULL%1,                          Eric%Yim%NULL%1,                          Sandra%Kreider%NULL%1,                          Dawn%Barr%NULL%1,                          Nancy%Wilde%NULL%1,                          Courtney%Dorman%NULL%1,                          Airin%Lam%NULL%1,                          Jeanette%Harris%NULL%1,                          Hollianne%Bruce%NULL%2,                          Christopher%Spitters%NULL%2,                          Snohomish Health%District%NULL%1,                          Rachael%Zacks%NULL%1,                          Jonathan%Dyal%NULL%1,                          Michael%Hughes%NULL%1,                          Christina%Carlson%NULL%1,                          Barbara%Cooper%NULL%1,                          Michelle%Banks%NULL%1,                          Heather%McLaughlin%NULL%1,                          Arun%Balajee%NULL%1,                          Christine%Olson%NULL%1,                          Suzanne%Zane%NULL%1,                          Hammad%Ali%NULL%1,                          Jessica%Healy%NULL%1,                          Kristine%Schmit%NULL%1,                          Kevin%Spicer%NULL%1,                          Zeshan%Chisty%NULL%1,                          Sukarma%Tanwar%NULL%1,                          Joanne%Taylor%NULL%1,                          Leisha%Nolen%NULL%1,                          Jeneita%Bell%NULL%1,                          Kelly%Hatfield%NULL%1,                          Melissa%Arons%NULL%1,                          Anne%Kimball%NULL%1,                          Allison%James%NULL%1,                          Mark%Methner%NULL%1,                          Joshua%Harney%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%14,                           Zheng-yi%Ni%NULL%5,                           Yu%Hu%NULL%4,                           Wen-hua%Liang%NULL%4,                           Chun-quan%Ou%NULL%4,                           Jian-xing%He%NULL%4,                           Lei%Liu%NULL%8,                           Hong%Shan%NULL%6,                           Chun-liang%Lei%NULL%4,                           David S.C.%Hui%NULL%3,                           Bin%Du%NULL%3,                           Lan-juan%Li%NULL%3,                           Guang%Zeng%NULL%3,                           Kwok-Yung%Yuen%NULL%6,                           Ru-chong%Chen%NULL%4,                           Chun-li%Tang%NULL%4,                           Tao%Wang%NULL%7,                           Ping-yan%Chen%NULL%4,                           Jie%Xiang%NULL%6,                           Shi-yue%Li%NULL%4,                           Jin-lin%Wang%NULL%3,                           Zi-jing%Liang%NULL%3,                           Yi-xiang%Peng%NULL%4,                           Li%Wei%NULL%4,                           Yong%Liu%NULL%4,                           Ya-hua%Hu%NULL%4,                           Peng%Peng%NULL%7,                           Jian-ming%Wang%NULL%4,                           Ji-yang%Liu%NULL%4,                           Zhong%Chen%NULL%4,                           Gang%Li%NULL%6,                           Zhi-jian%Zheng%NULL%4,                           Shao-qin%Qiu%NULL%4,                           Jie%Luo%NULL%4,                           Chang-jiang%Ye%NULL%4,                           Shao-yong%Zhu%NULL%4,                           Nan-shan%Zhong%NULL%5]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%0,                           Dengju%Li%NULL%2,                           Xiong%Wang%NULL%2,                           Ziyong%Sun%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Huijun%Chen%NULL%3,                           Juanjuan%Guo%NULL%3,                           Chen%Wang%NULL%3,                           Fan%Luo%NULL%2,                           Xuechen%Yu%NULL%3,                           Wei%Zhang%NULL%6,                           Jiafu%Li%NULL%3,                           Dongchi%Zhao%NULL%2,                           Dan%Xu%NULL%3,                           Qing%Gong%NULL%2,                           Jing%Liao%NULL%2,                           Huixia%Yang%yanghuixia@bjmu.edu.cn%3,                           Wei%Hou%houwei@whu.edu.cn%2,                           Yuanzhen%Zhang%zhangyuanzhen@whu.edu.cn%3]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                           Yeming%Wang%NULL%6,                           Xingwang%Li%NULL%7,                           Lili%Ren%NULL%4,                           Jianping%Zhao%NULL%9,                           Yi%Hu%NULL%7,                           Li%Zhang%NULL%7,                           Guohui%Fan%NULL%6,                           Jiuyang%Xu%NULL%6,                           Xiaoying%Gu%NULL%6,                           Zhenshun%Cheng%NULL%4,                           Ting%Yu%NULL%13,                           Jiaan%Xia%NULL%4,                           Yuan%Wei%NULL%10,                           Wenjuan%Wu%NULL%4,                           Xuelei%Xie%NULL%4,                           Wen%Yin%NULL%6,                           Hui%Li%NULL%7,                           Min%Liu%NULL%4,                           Yan%Xiao%NULL%5,                           Hong%Gao%NULL%6,                           Li%Guo%NULL%5,                           Jungang%Xie%NULL%5,                           Guangfa%Wang%NULL%4,                           Rongmeng%Jiang%NULL%4,                           Zhancheng%Gao%NULL%5,                           Qi%Jin%NULL%5,                           Jianwei%Wang%wangjw28@163.com%0,                           Bin%Cao%caobin_ben@163.com%7]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,                           Xiao-Xin%Wu%NULL%4,                           Xian-Gao%Jiang%NULL%4,                           Kai-Jin%Xu%NULL%4,                           Ling-Jun%Ying%NULL%4,                           Chun-Lian%Ma%NULL%4,                           Shi-Bo%Li%NULL%4,                           Hua-Ying%Wang%NULL%4,                           Sheng%Zhang%NULL%4,                           Hai-Nv%Gao%NULL%4,                           Ji-Fang%Sheng%NULL%4,                           Hong-Liu%Cai%NULL%4,                           Yun-Qing%Qiu%NULL%4,                           Lan-Juan%Li%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0,                           Kai%Xie%NULL%3,                           Hui%Lu%NULL%2,                           Lei%Xu%bayinhexl@126.com%2,                           Shusheng%Zhou%zhouss108@163.com%2,                           Shiyuan%Fang%fangshiyuan2008@126.com%2]</t>
+  </si>
+  <si>
+    <t>[Dahai%Zhao%NULL%0,                           Feifei%Yao%NULL%1,                           Lijie%Wang%NULL%1,                           Ling%Zheng%NULL%1,                           Yongjun%Gao%NULL%1,                           Jun%Ye%NULL%1,                           Feng%Guo%NULL%1,                           Hui%Zhao%NULL%1,                           Rongbao%Gao%rongbaogao@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Zhiliang%Hu%NULL%0,                           Ci%Song%NULL%1,                           Chuanjun%Xu%NULL%1,                           Guangfu%Jin%NULL%1,                           Yaling%Chen%NULL%1,                           Xin%Xu%NULL%1,                           Hongxia%Ma%NULL%1,                           Wei%Chen%NULL%3,                           Yuan%Lin%NULL%1,                           Yishan%Zheng%NULL%1,                           Jianming%Wang%NULL%1,                           Zhibin%Hu%zhibin_hu@njmu.edu.cn%1,                           Yongxiang%Yi%ian0126@126.com%1,                           Hongbing%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%12,                           Di%Wu%NULL%2,                           Huilong%Chen%NULL%2,                           Weiming%Yan%NULL%2,                           Danlei%Yang%NULL%2,                           Guang%Chen%NULL%2,                           Ke%Ma%NULL%2,                           Dong%Xu%NULL%2,                           Haijing%Yu%NULL%2,                           Hongwu%Wang%NULL%2,                           Tao%Wang%NULL%0,                           Wei%Guo%NULL%2,                           Jia%Chen%NULL%2,                           Chen%Ding%NULL%2,                           Xiaoping%Zhang%NULL%2,                           Jiaquan%Huang%NULL%2,                           Meifang%Han%NULL%2,                           Shusheng%Li%NULL%2,                           Xiaoping%Luo%NULL%2,                           Jianping%Zhao%NULL%0,                           Qin%Ning%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,                           Yuan-Yuan%Fang%NULL%4,                           Yan%Deng%NULL%3,                           Wei%Liu%NULL%5,                           Mei-Fang%Wang%NULL%3,                           Jing-Ping%Ma%NULL%3,                           Wei%Xiao%NULL%3,                           Ying-Nan%Wang%NULL%3,                           Min-Hua%Zhong%NULL%3,                           Cheng-Hong%Li%NULL%3,                           Guang-Cai%Li%NULL%3,                           Hui-Guo%Liu%NULL%4,                           Xiu-Yuan%Hao%NULL%6,                           Pei-Fang%Wei%NULL%8]</t>
+  </si>
+  <si>
+    <t>[Feng%Pan%NULL%4,                           Tianhe%Ye%NULL%3,                           Peng%Sun%NULL%3,                           Shan%Gui%NULL%3,                           Bo%Liang%NULL%3,                           Lingli%Li%NULL%3,                           Dandan%Zheng%NULL%3,                           Jiazheng%Wang%NULL%3,                           Richard L.%Hesketh%NULL%3,                           Lian%Yang%yanglian@hust.edu.cn%3,                           Chuansheng%Zheng%NULL%5]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                           Yuan%Yu%NULL%2,                           Jiqian%Xu%NULL%1,                           Huaqing%Shu%NULL%1,                           Jia'an%Xia%NULL%4,                           Hong%Liu%NULL%3,                           Yongran%Wu%NULL%2,                           Lu%Zhang%NULL%1,                           Zhui%Yu%NULL%1,                           Minghao%Fang%NULL%1,                           Ting%Yu%NULL%0,                           Yaxin%Wang%NULL%2,                           Shangwen%Pan%NULL%1,                           Xiaojing%Zou%NULL%2,                           Shiying%Yuan%NULL%2,                           You%Shang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jiaojiao%Chu%NULL%3,                           Nan%Yang%NULL%2,                           Yanqiu%Wei%NULL%2,                           Huihui%Yue%NULL%2,                           Fengqin%Zhang%NULL%2,                           Jianping%Zhao%NULL%0,                           Li%He%NULL%2,                           Gaohong%Sheng%NULL%2,                           Peng%Chen%NULL%2,                           Gang%Li%NULL%0,                           Sisi%Wu%NULL%2,                           Bo%Zhang%NULL%2,                           Shu%Zhang%szhang@tjh.tjmu.edu.cn%2,                           Congyi%Wang%wangcy@tjh.tjmu.edu.cn%2,                           Xiaoping%Miao%miaoxp@hust.edu.cn%2,                           Juan%Li%lijuan@tjh.tjmu.edu.cn%2,                           Wenhua%Liu%liuwh_2013@126.com%2,                           Huilan%Zhang%huilanz_76@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Temet M.%McMichael%NULL%2,                           Shauna%Clark%NULL%2,                           Sargis%Pogosjans%NULL%2,                           Meagan%Kay%NULL%2,                           James%Lewis%NULL%3,                           Atar%Baer%NULL%2,                           Vance%Kawakami%NULL%2,                           Margaret D.%Lukoff%NULL%2,                           Jessica%Ferro%NULL%2,                           Claire%Brostrom-Smith%NULL%2,                           Francis X.%Riedo%NULL%2,                           Denny%Russell%NULL%2,                           Brian%Hiatt%NULL%2,                           Patricia%Montgomery%NULL%2,                           Agam K.%Rao%NULL%2,                           Dustin W.%Currie%NULL%2,                           Eric J.%Chow%NULL%2,                           Farrell%Tobolowsky%NULL%2,                           Ana C.%Bardossy%NULL%2,                           Lisa P.%Oakley%NULL%2,                           Jesica R.%Jacobs%NULL%2,                           Noah G.%Schwartz%NULL%2,                           Nimalie%Stone%NULL%1,                           Sujan C.%Reddy%NULL%4,                           John A.%Jernigan%NULL%3,                           Margaret A.%Honein%NULL%2,                           Thomas A.%Clark%NULL%2,                           Jeffrey S.%Duchin%NULL%2,                           NULL%NULL%NULL%22,                           NULL%NULL%NULL%0,                           Meaghan S.%Fagalde%NULL%1,                           Jennifer L.%Lenahan%NULL%1,                           Emily B.%Maier%NULL%1,                           Kaitlyn J.%Sykes%NULL%1,                           Grace%Hatt%NULL%1,                           Holly%Whitney%NULL%1,                           Melinda%Huntington-Frazier%NULL%1,                           Elysia%Gonzales%NULL%1,                           Laura A.%Mummert%NULL%1,                           Hal Garcia%Smith%NULL%1,                           Steve%Stearns%NULL%1,                           Eileen%Benoliel%NULL%1,                           Shelly%McKeirnan%NULL%1,                           Jennifer L.%Morgan%NULL%1,                           Daniel%Smith%NULL%1,                           Michaela%Hope%NULL%1,                           Noel%Hatley%NULL%1,                           Leslie M.%Barnard%NULL%1,                           Leilani%Schwarcz%NULL%1,                           Nicole%Yarid%NULL%1,                           Eric%Yim%NULL%1,                           Sandra%Kreider%NULL%1,                           Dawn%Barr%NULL%1,                           Nancy%Wilde%NULL%1,                           Courtney%Dorman%NULL%1,                           Airin%Lam%NULL%1,                           Jeanette%Harris%NULL%1,                           Hollianne%Bruce%NULL%2,                           Christopher%Spitters%NULL%2,                           Snohomish Health%District%NULL%1,                           Rachael%Zacks%NULL%1,                           Jonathan%Dyal%NULL%1,                           Michael%Hughes%NULL%1,                           Christina%Carlson%NULL%1,                           Barbara%Cooper%NULL%1,                           Michelle%Banks%NULL%1,                           Heather%McLaughlin%NULL%1,                           Arun%Balajee%NULL%1,                           Christine%Olson%NULL%1,                           Suzanne%Zane%NULL%1,                           Hammad%Ali%NULL%1,                           Jessica%Healy%NULL%1,                           Kristine%Schmit%NULL%1,                           Kevin%Spicer%NULL%1,                           Zeshan%Chisty%NULL%1,                           Sukarma%Tanwar%NULL%1,                           Joanne%Taylor%NULL%1,                           Leisha%Nolen%NULL%1,                           Jeneita%Bell%NULL%1,                           Kelly%Hatfield%NULL%1,                           Melissa%Arons%NULL%1,                           Anne%Kimball%NULL%1,                           Allison%James%NULL%1,                           Mark%Methner%NULL%1,                           Joshua%Harney%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%14,                            Zheng-yi%Ni%NULL%5,                            Yu%Hu%NULL%4,                            Wen-hua%Liang%NULL%4,                            Chun-quan%Ou%NULL%4,                            Jian-xing%He%NULL%4,                            Lei%Liu%NULL%6,                            Hong%Shan%NULL%6,                            Chun-liang%Lei%NULL%4,                            David S.C.%Hui%NULL%3,                            Bin%Du%NULL%3,                            Lan-juan%Li%NULL%3,                            Guang%Zeng%NULL%3,                            Kwok-Yung%Yuen%NULL%5,                            Ru-chong%Chen%NULL%4,                            Chun-li%Tang%NULL%4,                            Tao%Wang%NULL%7,                            Ping-yan%Chen%NULL%4,                            Jie%Xiang%NULL%6,                            Shi-yue%Li%NULL%4,                            Jin-lin%Wang%NULL%3,                            Zi-jing%Liang%NULL%3,                            Yi-xiang%Peng%NULL%4,                            Li%Wei%NULL%4,                            Yong%Liu%NULL%4,                            Ya-hua%Hu%NULL%4,                            Peng%Peng%NULL%7,                            Jian-ming%Wang%NULL%4,                            Ji-yang%Liu%NULL%4,                            Zhong%Chen%NULL%4,                            Gang%Li%NULL%6,                            Zhi-jian%Zheng%NULL%4,                            Shao-qin%Qiu%NULL%4,                            Jie%Luo%NULL%4,                            Chang-jiang%Ye%NULL%4,                            Shao-yong%Zhu%NULL%4,                            Nan-shan%Zhong%NULL%5]</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%0,                            Dengju%Li%NULL%2,                            Xiong%Wang%NULL%2,                            Ziyong%Sun%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Huijun%Chen%NULL%3,                            Juanjuan%Guo%NULL%3,                            Chen%Wang%NULL%3,                            Fan%Luo%NULL%2,                            Xuechen%Yu%NULL%3,                            Wei%Zhang%NULL%6,                            Jiafu%Li%NULL%3,                            Dongchi%Zhao%NULL%2,                            Dan%Xu%NULL%3,                            Qing%Gong%NULL%2,                            Jing%Liao%NULL%2,                            Huixia%Yang%yanghuixia@bjmu.edu.cn%3,                            Wei%Hou%houwei@whu.edu.cn%2,                            Yuanzhen%Zhang%zhangyuanzhen@whu.edu.cn%3]</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0,                            Yeming%Wang%NULL%6,                            Xingwang%Li%NULL%7,                            Lili%Ren%NULL%4,                            Jianping%Zhao%NULL%9,                            Yi%Hu%NULL%7,                            Li%Zhang%NULL%7,                            Guohui%Fan%NULL%6,                            Jiuyang%Xu%NULL%6,                            Xiaoying%Gu%NULL%6,                            Zhenshun%Cheng%NULL%4,                            Ting%Yu%NULL%13,                            Jiaan%Xia%NULL%4,                            Yuan%Wei%NULL%10,                            Wenjuan%Wu%NULL%4,                            Xuelei%Xie%NULL%4,                            Wen%Yin%NULL%6,                            Hui%Li%NULL%7,                            Min%Liu%NULL%4,                            Yan%Xiao%NULL%5,                            Hong%Gao%NULL%6,                            Li%Guo%NULL%5,                            Jungang%Xie%NULL%5,                            Guangfa%Wang%NULL%4,                            Rongmeng%Jiang%NULL%4,                            Zhancheng%Gao%NULL%5,                            Qi%Jin%NULL%5,                            Jianwei%Wang%wangjw28@163.com%4,                            Bin%Cao%caobin_ben@163.com%7]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0,                            Xiao-Xin%Wu%NULL%4,                            Xian-Gao%Jiang%NULL%4,                            Kai-Jin%Xu%NULL%4,                            Ling-Jun%Ying%NULL%4,                            Chun-Lian%Ma%NULL%4,                            Shi-Bo%Li%NULL%4,                            Hua-Ying%Wang%NULL%4,                            Sheng%Zhang%NULL%4,                            Hai-Nv%Gao%NULL%4,                            Ji-Fang%Sheng%NULL%4,                            Hong-Liu%Cai%NULL%4,                            Yun-Qing%Qiu%NULL%4,                            Lan-Juan%Li%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0,                            Kai%Xie%NULL%3,                            Hui%Lu%NULL%2,                            Lei%Xu%bayinhexl@126.com%2,                            Shusheng%Zhou%zhouss108@163.com%2,                            Shiyuan%Fang%fangshiyuan2008@126.com%2]</t>
+  </si>
+  <si>
+    <t>[Dahai%Zhao%NULL%0,                            Feifei%Yao%NULL%1,                            Lijie%Wang%NULL%1,                            Ling%Zheng%NULL%1,                            Yongjun%Gao%NULL%1,                            Jun%Ye%NULL%1,                            Feng%Guo%NULL%1,                            Hui%Zhao%NULL%1,                            Rongbao%Gao%rongbaogao@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Zhiliang%Hu%NULL%0,                            Ci%Song%NULL%1,                            Chuanjun%Xu%NULL%1,                            Guangfu%Jin%NULL%1,                            Yaling%Chen%NULL%1,                            Xin%Xu%NULL%1,                            Hongxia%Ma%NULL%1,                            Wei%Chen%NULL%3,                            Yuan%Lin%NULL%1,                            Yishan%Zheng%NULL%1,                            Jianming%Wang%NULL%1,                            Zhibin%Hu%zhibin_hu@njmu.edu.cn%1,                            Yongxiang%Yi%ian0126@126.com%1,                            Hongbing%Shen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%12,                            Di%Wu%NULL%2,                            Huilong%Chen%NULL%2,                            Weiming%Yan%NULL%2,                            Danlei%Yang%NULL%2,                            Guang%Chen%NULL%2,                            Ke%Ma%NULL%2,                            Dong%Xu%NULL%2,                            Haijing%Yu%NULL%2,                            Hongwu%Wang%NULL%2,                            Tao%Wang%NULL%0,                            Wei%Guo%NULL%2,                            Jia%Chen%NULL%2,                            Chen%Ding%NULL%2,                            Xiaoping%Zhang%NULL%2,                            Jiaquan%Huang%NULL%2,                            Meifang%Han%NULL%2,                            Shusheng%Li%NULL%2,                            Xiaoping%Luo%NULL%2,                            Jianping%Zhao%NULL%0,                            Qin%Ning%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0,                            Yuan-Yuan%Fang%NULL%4,                            Yan%Deng%NULL%3,                            Wei%Liu%NULL%5,                            Mei-Fang%Wang%NULL%3,                            Jing-Ping%Ma%NULL%3,                            Wei%Xiao%NULL%3,                            Ying-Nan%Wang%NULL%3,                            Min-Hua%Zhong%NULL%3,                            Cheng-Hong%Li%NULL%3,                            Guang-Cai%Li%NULL%3,                            Hui-Guo%Liu%NULL%4,                            Xiu-Yuan%Hao%NULL%6,                            Pei-Fang%Wei%NULL%8]</t>
+  </si>
+  <si>
+    <t>[Feng%Pan%NULL%4,                            Tianhe%Ye%NULL%3,                            Peng%Sun%NULL%3,                            Shan%Gui%NULL%3,                            Bo%Liang%NULL%3,                            Lingli%Li%NULL%3,                            Dandan%Zheng%NULL%3,                            Jiazheng%Wang%NULL%3,                            Richard L.%Hesketh%NULL%3,                            Lian%Yang%yanglian@hust.edu.cn%3,                            Chuansheng%Zheng%NULL%5]</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0,                            Yuan%Yu%NULL%2,                            Jiqian%Xu%NULL%1,                            Huaqing%Shu%NULL%1,                            Jia'an%Xia%NULL%4,                            Hong%Liu%NULL%3,                            Yongran%Wu%NULL%2,                            Lu%Zhang%NULL%1,                            Zhui%Yu%NULL%1,                            Minghao%Fang%NULL%1,                            Ting%Yu%NULL%0,                            Yaxin%Wang%NULL%2,                            Shangwen%Pan%NULL%1,                            Xiaojing%Zou%NULL%2,                            Shiying%Yuan%NULL%2,                            You%Shang%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jiaojiao%Chu%NULL%3,                            Nan%Yang%NULL%2,                            Yanqiu%Wei%NULL%2,                            Huihui%Yue%NULL%2,                            Fengqin%Zhang%NULL%2,                            Jianping%Zhao%NULL%0,                            Li%He%NULL%2,                            Gaohong%Sheng%NULL%2,                            Peng%Chen%NULL%2,                            Gang%Li%NULL%0,                            Sisi%Wu%NULL%2,                            Bo%Zhang%NULL%2,                            Shu%Zhang%szhang@tjh.tjmu.edu.cn%2,                            Congyi%Wang%wangcy@tjh.tjmu.edu.cn%2,                            Xiaoping%Miao%miaoxp@hust.edu.cn%2,                            Juan%Li%lijuan@tjh.tjmu.edu.cn%2,                            Wenhua%Liu%liuwh_2013@126.com%2,                            Huilan%Zhang%huilanz_76@163.com%2]</t>
+  </si>
+  <si>
+    <t>[Temet M.%McMichael%NULL%2,                            Shauna%Clark%NULL%2,                            Sargis%Pogosjans%NULL%2,                            Meagan%Kay%NULL%2,                            James%Lewis%NULL%3,                            Atar%Baer%NULL%2,                            Vance%Kawakami%NULL%2,                            Margaret D.%Lukoff%NULL%2,                            Jessica%Ferro%NULL%2,                            Claire%Brostrom-Smith%NULL%2,                            Francis X.%Riedo%NULL%2,                            Denny%Russell%NULL%2,                            Brian%Hiatt%NULL%2,                            Patricia%Montgomery%NULL%2,                            Agam K.%Rao%NULL%2,                            Dustin W.%Currie%NULL%2,                            Eric J.%Chow%NULL%2,                            Farrell%Tobolowsky%NULL%2,                            Ana C.%Bardossy%NULL%2,                            Lisa P.%Oakley%NULL%2,                            Jesica R.%Jacobs%NULL%2,                            Noah G.%Schwartz%NULL%2,                            Nimalie%Stone%NULL%1,                            Sujan C.%Reddy%NULL%4,                            John A.%Jernigan%NULL%3,                            Margaret A.%Honein%NULL%2,                            Thomas A.%Clark%NULL%2,                            Jeffrey S.%Duchin%NULL%2,                            NULL%NULL%NULL%22,                            NULL%NULL%NULL%0,                            Meaghan S.%Fagalde%NULL%1,                            Jennifer L.%Lenahan%NULL%1,                            Emily B.%Maier%NULL%1,                            Kaitlyn J.%Sykes%NULL%1,                            Grace%Hatt%NULL%1,                            Holly%Whitney%NULL%1,                            Melinda%Huntington-Frazier%NULL%1,                            Elysia%Gonzales%NULL%1,                            Laura A.%Mummert%NULL%1,                            Hal Garcia%Smith%NULL%1,                            Steve%Stearns%NULL%1,                            Eileen%Benoliel%NULL%1,                            Shelly%McKeirnan%NULL%1,                            Jennifer L.%Morgan%NULL%1,                            Daniel%Smith%NULL%1,                            Michaela%Hope%NULL%1,                            Noel%Hatley%NULL%1,                            Leslie M.%Barnard%NULL%1,                            Leilani%Schwarcz%NULL%1,                            Nicole%Yarid%NULL%1,                            Eric%Yim%NULL%1,                            Sandra%Kreider%NULL%1,                            Dawn%Barr%NULL%1,                            Nancy%Wilde%NULL%1,                            Courtney%Dorman%NULL%1,                            Airin%Lam%NULL%1,                            Jeanette%Harris%NULL%1,                            Hollianne%Bruce%NULL%2,                            Christopher%Spitters%NULL%2,                            Snohomish Health%District%NULL%1,                            Rachael%Zacks%NULL%1,                            Jonathan%Dyal%NULL%1,                            Michael%Hughes%NULL%1,                            Christina%Carlson%NULL%1,                            Barbara%Cooper%NULL%1,                            Michelle%Banks%NULL%1,                            Heather%McLaughlin%NULL%1,                            Arun%Balajee%NULL%1,                            Christine%Olson%NULL%1,                            Suzanne%Zane%NULL%1,                            Hammad%Ali%NULL%1,                            Jessica%Healy%NULL%1,                            Kristine%Schmit%NULL%1,                            Kevin%Spicer%NULL%1,                            Zeshan%Chisty%NULL%1,                            Sukarma%Tanwar%NULL%1,                            Joanne%Taylor%NULL%1,                            Leisha%Nolen%NULL%1,                            Jeneita%Bell%NULL%1,                            Kelly%Hatfield%NULL%1,                            Melissa%Arons%NULL%1,                            Anne%Kimball%NULL%1,                            Allison%James%NULL%1,                            Mark%Methner%NULL%1,                            Joshua%Harney%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wei-jie%Guan%NULL%0, Zheng-yi%Ni%NULL%28, Zheng-yi%Ni%NULL%0, Yu%Hu%NULL%25, Wen-hua%Liang%NULL%0, Chun-quan%Ou%NULL%14, Jian-xing%He%NULL%16, Lei%Liu%NULL%0, Hong%Shan%NULL%0, Chun-liang%Lei%NULL%16, David S.C.%Hui%NULL%13, Bin%Du%NULL%12, Lan-juan%Li%NULL%12, Guang%Zeng%NULL%12, Kwok-Yung%Yuen%NULL%0, Ru-chong%Chen%NULL%16, Chun-li%Tang%NULL%16, Tao%Wang%NULL%0, Ping-yan%Chen%NULL%14, Jie%Xiang%NULL%0, Shi-yue%Li%NULL%16, Jin-lin%Wang%NULL%12, Zi-jing%Liang%NULL%12, Yi-xiang%Peng%NULL%16, Li%Wei%NULL%22, Yong%Liu%NULL%22, Ya-hua%Hu%NULL%16, Peng%Peng%NULL%33, Jian-ming%Wang%NULL%18, Ji-yang%Liu%NULL%16, Zhong%Chen%NULL%22, Gang%Li%NULL%25, Zhi-jian%Zheng%NULL%16, Shao-qin%Qiu%NULL%16, Jie%Luo%NULL%22, Chang-jiang%Ye%NULL%16, Shao-yong%Zhu%NULL%16, Nan-shan%Zhong%NULL%17]</t>
+  </si>
+  <si>
+    <t>Massachusetts Medical Society</t>
+  </si>
+  <si>
+    <t>[Ning%Tang%NULL%0, Dengju%Li%NULL%0, Xiong%Wang%NULL%0, Ziyong%Sun%NULL%0]</t>
+  </si>
+  <si>
+    <t>International Society on Thrombosis and Haemostasis. Published by Elsevier Inc.</t>
+  </si>
+  <si>
+    <t>[Huijun%Chen%NULL%0, Juanjuan%Guo%NULL%5, Chen%Wang%NULL%7, Fan%Luo%NULL%3, Xuechen%Yu%NULL%5, Wei%Zhang%NULL%0, Jiafu%Li%NULL%5, Dongchi%Zhao%NULL%3, Dan%Xu%NULL%11, Qing%Gong%NULL%3, Jing%Liao%NULL%3, Huixia%Yang%yanghuixia@bjmu.edu.cn%5, Wei%Hou%houwei@whu.edu.cn%9, Yuanzhen%Zhang%zhangyuanzhen@whu.edu.cn%5]</t>
+  </si>
+  <si>
+    <t>Elsevier Ltd.</t>
+  </si>
+  <si>
+    <t>[Chaolin%Huang%NULL%0, Yeming%Wang%NULL%0, Xingwang%Li%NULL%0, Lili%Ren%NULL%0, Jianping%Zhao%NULL%0, Yi%Hu%NULL%0, Li%Zhang%NULL%0, Guohui%Fan%NULL%0, Jiuyang%Xu%NULL%0, Xiaoying%Gu%NULL%0, Zhenshun%Cheng%NULL%0, Ting%Yu%NULL%0, Jiaan%Xia%NULL%0, Yuan%Wei%NULL%0, Wenjuan%Wu%NULL%0, Xuelei%Xie%NULL%0, Wen%Yin%NULL%0, Hui%Li%NULL%0, Min%Liu%NULL%0, Yan%Xiao%NULL%0, Hong%Gao%NULL%0, Li%Guo%NULL%0, Jungang%Xie%NULL%0, Guangfa%Wang%NULL%0, Rongmeng%Jiang%NULL%0, Zhancheng%Gao%NULL%0, Qi%Jin%NULL%0, Jianwei%Wang%wangjw28@163.com%0, Bin%Cao%caobin_ben@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Xiao-Wei%Xu%NULL%0, Xiao-Xin%Wu%NULL%0, Xian-Gao%Jiang%NULL%0, Kai-Jin%Xu%NULL%0, Ling-Jun%Ying%NULL%0, Chun-Lian%Ma%NULL%0, Shi-Bo%Li%NULL%0, Hua-Ying%Wang%NULL%0, Sheng%Zhang%NULL%0, Hai-Nv%Gao%NULL%0, Ji-Fang%Sheng%NULL%0, Hong-Liu%Cai%NULL%0, Yun-Qing%Qiu%NULL%0, Lan-Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>BMJ Publishing Group Ltd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">With an increasing number of Coronavirus Disease 2019 (COVID‐19) cases outside of Hubei, emergency departments (EDs) and fever clinics are facing challenges posed by the large number of admissions of patients suspected to have COVID‐19. Therefore, it is of crucial importance to study the initial clinical features of patients, to better differentiate between infected and uninfected patients outside Hubei.
+ A total of 116 patients suspected of having COVID‐19 who presented to two emergency departments in Anhui for the first time between 24 January 2020 and 20 February 2020 were enrolled in the study.
+ The initial clinical data of these patients, such as epidemiological features, symptoms, laboratory results, and chest computed tomography (CT) findings were collected using a standard case report form on admission.
+ Thirty‐two patients were diagnosed with COVID‐19; the remaining 84 patients were referred to as negative cases.
+ The median age of the diagnosed patients was 46 years, but only 35 years for negative cases.
+ History of exposure to Wuhan or COVID‐19 patients in the previous 2 weeks was observed in 63% of the diagnosed and 44% of negative cases.
+ Median time from illness onset to ED admission was 5 days for all patients, diagnosed patients, and negative cases, respectively.
+ Fever was observed in 27 (84%) and 57 (68%) diagnosed and negative cases, respectively.
+ Nineteen (59%) diagnosed and 24 (29%) negative cases had lymphopenia on admission in ED.
+ A chest CT scan on admission revealed the presence of pneumonia in the majority of the diagnosed patients (30 out of 32, 94%) and in 56 (67%) negative cases.
+ Bilateral involvement and ground‐glass opacity (GGO) were present in 91% and 47% of the diagnosed patients.
+ Thirty‐two patients were diagnosed with COVID‐19; the remaining 84 patients were referred to as negative cases.
+ The median age of the diagnosed patients was 46 years, but only 35 years for negative cases.
+ History of exposure to Wuhan or COVID‐19 patients in the previous 2 weeks was observed in 63% of the diagnosed and 44% of negative cases.
+ Median time from illness onset to ED admission was 5 days for all patients, diagnosed patients, and negative cases, respectively.
+ Fever was observed in 27 (84%) and 57 (68%) diagnosed and negative cases, respectively.
+ Nineteen (59%) diagnosed and 24 (29%) negative cases had lymphopenia on admission in ED.
+ A chest CT scan on admission revealed the presence of pneumonia in the majority of the diagnosed patients (30 out of 32, 94%) and in 56 (67%) negative cases.
+ Bilateral involvement and GGO were present in 91% and 47% of the diagnosed patients.
+</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0, Kai%Xie%NULL%0, Kai%Xie%NULL%0, Hui%Lu%NULL%0, Lei%Xu%bayinhexl@126.com%0, Shusheng%Zhou%zhouss108@163.com%0, Shiyuan%Fang%fangshiyuan2008@126.com%0]</t>
+  </si>
+  <si>
+    <t>John Wiley and Sons Inc.</t>
+  </si>
+  <si>
+    <t>[Dahai%Zhao%NULL%0, Feifei%Yao%NULL%0, Lijie%Wang%NULL%0, Ling%Zheng%NULL%0, Yongjun%Gao%NULL%0, Jun%Ye%NULL%0, Feng%Guo%NULL%0, Hui%Zhao%NULL%0, Rongbao%Gao%rongbaogao@163.com%0]</t>
+  </si>
+  <si>
+    <t>Oxford University Press</t>
+  </si>
+  <si>
+    <t>[Zhiliang%Hu%NULL%0, Ci%Song%NULL%0, Chuanjun%Xu%NULL%0, Guangfu%Jin%NULL%0, Yaling%Chen%NULL%0, Xin%Xu%NULL%0, Hongxia%Ma%NULL%0, Wei%Chen%NULL%0, Yuan%Lin%NULL%0, Yishan%Zheng%NULL%0, Jianming%Wang%NULL%0, Zhibin%Hu%zhibin_hu@njmu.edu.cn%0, Yongxiang%Yi%ian0126@126.com%0, Hongbing%Shen%NULL%0]</t>
+  </si>
+  <si>
+    <t>Science China Press</t>
+  </si>
+  <si>
+    <t>[Tao%Chen%NULL%0, Di%Wu%NULL%0, Huilong%Chen%NULL%12, Weiming%Yan%NULL%12, Danlei%Yang%NULL%12, Guang%Chen%NULL%12, Ke%Ma%NULL%14, Dong%Xu%NULL%20, Haijing%Yu%NULL%12, Hongwu%Wang%NULL%12, Tao%Wang%NULL%0, Wei%Guo%NULL%13, Jia%Chen%NULL%12, Chen%Ding%NULL%12, Xiaoping%Zhang%NULL%12, Jiaquan%Huang%NULL%12, Meifang%Han%NULL%12, Shusheng%Li%NULL%13, Xiaoping%Luo%NULL%12, Jianping%Zhao%NULL%0, Qin%Ning%NULL%12]</t>
+  </si>
+  <si>
+    <t>[Kui%Liu%NULL%0, Yuan-Yuan%Fang%NULL%0, Yan%Deng%NULL%0, Wei%Liu%NULL%0, Mei-Fang%Wang%NULL%0, Jing-Ping%Ma%NULL%0, Wei%Xiao%NULL%0, Ying-Nan%Wang%NULL%0, Min-Hua%Zhong%NULL%0, Cheng-Hong%Li%NULL%0, Guang-Cai%Li%NULL%0, Hui-Guo%Liu%NULL%0, Xiu-Yuan%Hao%NULL%0, Xiu-Yuan%Hao%NULL%0, Pei-Fang%Wei%NULL%0]</t>
+  </si>
+  <si>
+    <t>Wolters Kluwer Health</t>
+  </si>
+  <si>
+    <t>[Feng%Pan%NULL%0, Tianhe%Ye%NULL%6, Tianhe%Ye%NULL%0, Peng%Sun%NULL%5, Peng%Sun%NULL%0, Shan%Gui%NULL%6, Shan%Gui%NULL%0, Bo%Liang%NULL%6, Bo%Liang%NULL%0, Lingli%Li%NULL%6, Lingli%Li%NULL%0, Dandan%Zheng%NULL%4, Dandan%Zheng%NULL%0, Jiazheng%Wang%NULL%4, Jiazheng%Wang%NULL%0, Richard L.%Hesketh%NULL%4, Richard L.%Hesketh%NULL%0, Lian%Yang%yanglian@hust.edu.cn%6, Lian%Yang%yanglian@hust.edu.cn%0, Chuansheng%Zheng%NULL%0, Chuansheng%Zheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>Radiological Society of North America</t>
+  </si>
+  <si>
+    <t>[Xiaobo%Yang%NULL%0, Yuan%Yu%NULL%0, Jiqian%Xu%NULL%0, Huaqing%Shu%NULL%0, Jia'an%Xia%NULL%0, Hong%Liu%NULL%0, Yongran%Wu%NULL%0, Lu%Zhang%NULL%0, Zhui%Yu%NULL%0, Minghao%Fang%NULL%0, Ting%Yu%NULL%0, Yaxin%Wang%NULL%0, Shangwen%Pan%NULL%0, Xiaojing%Zou%NULL%0, Shiying%Yuan%NULL%0, You%Shang%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In December 2019, an outbreak of the severe acute respiratory syndrome coronavirus 2 (SARS‐Cov‐2) infection occurred in Wuhan, and rapidly spread to worldwide, which has attracted many people's concerns about the patients.
+ However, studies on the infection status of medical personnel is still lacking.
+ A total of 54 cases of SARS‐Cov‐2 infected medical staff from Tongji Hospital between 7 January and 11 February 2020 were analyzed in this retrospective study.
+ Clinical and epidemiological characteristics were compared between different groups by statistical method.
+ From 7 January to 11 February 2020, 54 medical staff of Tongji Hospital were hospitalized due to coronavirus disease 2019 (COVID‐19).
+ Most of them were from other clinical departments (72.2%) rather than emergency department (3.7%) or medical technology departments (18.5%).
+ Among the 54 patients with COVID‐19, the distribution of age had a significant difference between non‐severe type and severe/critical cases (median age: 47 years vs 38 years; P = .
+0015).
+ However, there was no statistical difference in terms of gender distribution and the first symptoms between theses two groups.
+ Furthermore, we observed that the lesion regions in SARS‐Cov‐2 infected lungs with severe‐/critical‐type of medical staff were more likely to exhibit lesions in the right upper lobe (31.7% vs 0%; P = .
+028) and right lung (61% vs 18.2%; P = .
+012).
+ Based on our findings with medical staff infection data, we suggest training for all hospital staff to prevent infection and preparation of sufficient protection and disinfection materials.
+</t>
+  </si>
+  <si>
+    <t>[Jiaojiao%Chu%NULL%0, Nan%Yang%NULL%6, Nan%Yang%NULL%0, Yanqiu%Wei%NULL%3, Huihui%Yue%NULL%3, Fengqin%Zhang%NULL%3, Jianping%Zhao%NULL%0, Li%He%NULL%4, Gaohong%Sheng%NULL%6, Gaohong%Sheng%NULL%0, Peng%Chen%NULL%5, Gang%Li%NULL%0, Sisi%Wu%NULL%3, Bo%Zhang%NULL%4, Shu%Zhang%szhang@tjh.tjmu.edu.cn%3, Congyi%Wang%wangcy@tjh.tjmu.edu.cn%3, Xiaoping%Miao%miaoxp@hust.edu.cn%3, Juan%Li%lijuan@tjh.tjmu.edu.cn%8, Wenhua%Liu%liuwh_2013@126.com%3, Huilan%Zhang%huilanz_76@163.com%3]</t>
+  </si>
+  <si>
+    <t>[Temet M.%McMichael%NULL%0, Shauna%Clark%NULL%2, Sargis%Pogosjans%NULL%3, Meagan%Kay%NULL%4, James%Lewis%NULL%3, Atar%Baer%NULL%2, Vance%Kawakami%NULL%2, Margaret D.%Lukoff%NULL%3, Jessica%Ferro%NULL%2, Claire%Brostrom-Smith%NULL%2, Francis X.%Riedo%NULL%2, Denny%Russell%NULL%2, Brian%Hiatt%NULL%2, Patricia%Montgomery%NULL%2, Agam K.%Rao%NULL%2, Dustin W.%Currie%NULL%2, Eric J.%Chow%NULL%3, Farrell%Tobolowsky%NULL%3, Ana C.%Bardossy%NULL%2, Lisa P.%Oakley%NULL%2, Jesica R.%Jacobs%NULL%2, Noah G.%Schwartz%NULL%2, Nimalie%Stone%NULL%1, Sujan C.%Reddy%NULL%4, John A.%Jernigan%NULL%3, Margaret A.%Honein%NULL%2, Thomas A.%Clark%NULL%2, Jeffrey S.%Duchin%NULL%3, NULL%NULL%NULL%0, NULL%NULL%NULL%0, NULL%NULL%NULL%0, Meaghan S.%Fagalde%NULL%1, Jennifer L.%Lenahan%NULL%1, Emily B.%Maier%NULL%1, Kaitlyn J.%Sykes%NULL%1, Grace%Hatt%NULL%1, Holly%Whitney%NULL%2, Melinda%Huntington-Frazier%NULL%1, Elysia%Gonzales%NULL%3, Laura A.%Mummert%NULL%1, Hal Garcia%Smith%NULL%1, Steve%Stearns%NULL%1, Eileen%Benoliel%NULL%1, Shelly%McKeirnan%NULL%1, Jennifer L.%Morgan%NULL%1, Daniel%Smith%NULL%1, Michaela%Hope%NULL%1, Noel%Hatley%NULL%1, Leslie M.%Barnard%NULL%1, Leilani%Schwarcz%NULL%1, Nicole%Yarid%NULL%1, Eric%Yim%NULL%1, Sandra%Kreider%NULL%1, Dawn%Barr%NULL%1, Nancy%Wilde%NULL%1, Courtney%Dorman%NULL%1, Airin%Lam%NULL%1, Jeanette%Harris%NULL%1, Hollianne%Bruce%NULL%2, Christopher%Spitters%NULL%2, Snohomish Health%District%NULL%1, Rachael%Zacks%NULL%1, Jonathan%Dyal%NULL%1, Michael%Hughes%NULL%1, Christina%Carlson%NULL%1, Barbara%Cooper%NULL%1, Michelle%Banks%NULL%1, Heather%McLaughlin%NULL%1, Arun%Balajee%NULL%1, Christine%Olson%NULL%1, Suzanne%Zane%NULL%1, Hammad%Ali%NULL%1, Jessica%Healy%NULL%1, Kristine%Schmit%NULL%3, Kevin%Spicer%NULL%1, Zeshan%Chisty%NULL%1, Sukarma%Tanwar%NULL%1, Joanne%Taylor%NULL%1, Leisha%Nolen%NULL%1, Jeneita%Bell%NULL%1, Kelly%Hatfield%NULL%1, Melissa%Arons%NULL%1, Anne%Kimball%NULL%1, Allison%James%NULL%1, Mark%Methner%NULL%1, Joshua%Harney%NULL%1]</t>
+  </si>
+  <si>
+    <t>Centers for Disease Control and Prevention</t>
   </si>
 </sst>
 </file>
@@ -3090,7 +3284,7 @@
         <v>43928</v>
       </c>
       <c r="C2" t="s">
-        <v>238</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>28</v>
@@ -3099,16 +3293,16 @@
         <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="G2" t="s">
-        <v>239</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s">
         <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>543</v>
+        <v>96</v>
       </c>
       <c r="J2" t="s">
         <v>96</v>
@@ -3128,7 +3322,7 @@
         <v>108</v>
       </c>
       <c r="E3" t="s">
-        <v>712</v>
+        <v>761</v>
       </c>
       <c r="F3" t="s">
         <v>39</v>
@@ -3140,10 +3334,10 @@
         <v>35</v>
       </c>
       <c r="I3" t="s">
-        <v>545</v>
+        <v>96</v>
       </c>
       <c r="J3" t="s">
-        <v>96</v>
+        <v>762</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -3160,7 +3354,7 @@
         <v>109</v>
       </c>
       <c r="E4" t="s">
-        <v>713</v>
+        <v>763</v>
       </c>
       <c r="F4" t="s">
         <v>44</v>
@@ -3172,10 +3366,10 @@
         <v>45</v>
       </c>
       <c r="I4" t="s">
-        <v>547</v>
+        <v>96</v>
       </c>
       <c r="J4" t="s">
-        <v>96</v>
+        <v>764</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -3186,25 +3380,25 @@
         <v>44013</v>
       </c>
       <c r="C5" t="s">
-        <v>242</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>243</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>714</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>239</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
         <v>35</v>
       </c>
       <c r="I5" t="s">
-        <v>543</v>
+        <v>96</v>
       </c>
       <c r="J5" t="s">
         <v>96</v>
@@ -3218,25 +3412,25 @@
         <v>43907</v>
       </c>
       <c r="C6" t="s">
-        <v>245</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>246</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>715</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="G6" t="s">
-        <v>239</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s">
         <v>35</v>
       </c>
       <c r="I6" t="s">
-        <v>543</v>
+        <v>96</v>
       </c>
       <c r="J6" t="s">
         <v>96</v>
@@ -3256,7 +3450,7 @@
         <v>110</v>
       </c>
       <c r="E7" t="s">
-        <v>716</v>
+        <v>765</v>
       </c>
       <c r="F7" t="s">
         <v>49</v>
@@ -3268,10 +3462,10 @@
         <v>35</v>
       </c>
       <c r="I7" t="s">
-        <v>547</v>
+        <v>96</v>
       </c>
       <c r="J7" t="s">
-        <v>96</v>
+        <v>766</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -3288,7 +3482,7 @@
         <v>111</v>
       </c>
       <c r="E8" t="s">
-        <v>717</v>
+        <v>767</v>
       </c>
       <c r="F8" t="s">
         <v>53</v>
@@ -3300,10 +3494,10 @@
         <v>35</v>
       </c>
       <c r="I8" t="s">
-        <v>547</v>
+        <v>96</v>
       </c>
       <c r="J8" t="s">
-        <v>96</v>
+        <v>766</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -3320,7 +3514,7 @@
         <v>112</v>
       </c>
       <c r="E9" t="s">
-        <v>718</v>
+        <v>768</v>
       </c>
       <c r="F9" t="s">
         <v>57</v>
@@ -3332,10 +3526,10 @@
         <v>58</v>
       </c>
       <c r="I9" t="s">
-        <v>545</v>
+        <v>96</v>
       </c>
       <c r="J9" t="s">
-        <v>96</v>
+        <v>769</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -3346,28 +3540,28 @@
         <v>44013</v>
       </c>
       <c r="C10" t="s">
-        <v>323</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>719</v>
+        <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="G10" t="s">
-        <v>325</v>
+        <v>33</v>
       </c>
       <c r="H10" t="s">
-        <v>597</v>
+        <v>35</v>
       </c>
       <c r="I10" t="s">
         <v>96</v>
       </c>
       <c r="J10" t="s">
-        <v>598</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -3381,10 +3575,10 @@
         <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>113</v>
+        <v>770</v>
       </c>
       <c r="E11" t="s">
-        <v>720</v>
+        <v>771</v>
       </c>
       <c r="F11" t="s">
         <v>62</v>
@@ -3396,10 +3590,10 @@
         <v>63</v>
       </c>
       <c r="I11" t="s">
-        <v>545</v>
+        <v>96</v>
       </c>
       <c r="J11" t="s">
-        <v>96</v>
+        <v>772</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -3416,7 +3610,7 @@
         <v>114</v>
       </c>
       <c r="E12" t="s">
-        <v>721</v>
+        <v>773</v>
       </c>
       <c r="F12" t="s">
         <v>67</v>
@@ -3428,10 +3622,10 @@
         <v>35</v>
       </c>
       <c r="I12" t="s">
-        <v>545</v>
+        <v>96</v>
       </c>
       <c r="J12" t="s">
-        <v>96</v>
+        <v>774</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -3448,7 +3642,7 @@
         <v>115</v>
       </c>
       <c r="E13" t="s">
-        <v>722</v>
+        <v>775</v>
       </c>
       <c r="F13" t="s">
         <v>71</v>
@@ -3460,10 +3654,10 @@
         <v>72</v>
       </c>
       <c r="I13" t="s">
-        <v>557</v>
+        <v>96</v>
       </c>
       <c r="J13" t="s">
-        <v>96</v>
+        <v>776</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -3480,7 +3674,7 @@
         <v>116</v>
       </c>
       <c r="E14" t="s">
-        <v>723</v>
+        <v>777</v>
       </c>
       <c r="F14" t="s">
         <v>76</v>
@@ -3492,10 +3686,10 @@
         <v>77</v>
       </c>
       <c r="I14" t="s">
-        <v>545</v>
+        <v>96</v>
       </c>
       <c r="J14" t="s">
-        <v>96</v>
+        <v>769</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -3512,7 +3706,7 @@
         <v>117</v>
       </c>
       <c r="E15" t="s">
-        <v>724</v>
+        <v>778</v>
       </c>
       <c r="F15" t="s">
         <v>81</v>
@@ -3524,10 +3718,10 @@
         <v>35</v>
       </c>
       <c r="I15" t="s">
-        <v>545</v>
+        <v>96</v>
       </c>
       <c r="J15" t="s">
-        <v>96</v>
+        <v>779</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -3544,7 +3738,7 @@
         <v>118</v>
       </c>
       <c r="E16" t="s">
-        <v>725</v>
+        <v>780</v>
       </c>
       <c r="F16" t="s">
         <v>85</v>
@@ -3556,10 +3750,10 @@
         <v>35</v>
       </c>
       <c r="I16" t="s">
-        <v>545</v>
+        <v>96</v>
       </c>
       <c r="J16" t="s">
-        <v>96</v>
+        <v>781</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -3570,22 +3764,22 @@
         <v>43877</v>
       </c>
       <c r="C17" t="s">
-        <v>702</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>726</v>
+        <v>28</v>
       </c>
       <c r="E17" t="s">
-        <v>727</v>
+        <v>31</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="G17" t="s">
-        <v>705</v>
+        <v>33</v>
       </c>
       <c r="H17" t="s">
-        <v>706</v>
+        <v>35</v>
       </c>
       <c r="I17" t="s">
         <v>96</v>
@@ -3608,7 +3802,7 @@
         <v>119</v>
       </c>
       <c r="E18" t="s">
-        <v>728</v>
+        <v>782</v>
       </c>
       <c r="F18" t="s">
         <v>89</v>
@@ -3620,10 +3814,10 @@
         <v>35</v>
       </c>
       <c r="I18" t="s">
-        <v>547</v>
+        <v>96</v>
       </c>
       <c r="J18" t="s">
-        <v>96</v>
+        <v>766</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -3637,10 +3831,10 @@
         <v>90</v>
       </c>
       <c r="D19" t="s">
-        <v>120</v>
+        <v>783</v>
       </c>
       <c r="E19" t="s">
-        <v>729</v>
+        <v>784</v>
       </c>
       <c r="F19" t="s">
         <v>93</v>
@@ -3652,10 +3846,10 @@
         <v>94</v>
       </c>
       <c r="I19" t="s">
-        <v>545</v>
+        <v>96</v>
       </c>
       <c r="J19" t="s">
-        <v>96</v>
+        <v>772</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -3666,25 +3860,25 @@
         <v>43903</v>
       </c>
       <c r="C20" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="E20" t="s">
-        <v>730</v>
+        <v>31</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G20" t="s">
-        <v>459</v>
+        <v>33</v>
       </c>
       <c r="H20" t="s">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="I20" t="s">
-        <v>564</v>
+        <v>96</v>
       </c>
       <c r="J20" t="s">
         <v>96</v>
@@ -3698,25 +3892,25 @@
         <v>43893</v>
       </c>
       <c r="C21" t="s">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>105</v>
+        <v>28</v>
       </c>
       <c r="E21" t="s">
-        <v>731</v>
+        <v>31</v>
       </c>
       <c r="F21" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G21" t="s">
-        <v>459</v>
+        <v>33</v>
       </c>
       <c r="H21" t="s">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c r="I21" t="s">
-        <v>564</v>
+        <v>96</v>
       </c>
       <c r="J21" t="s">
         <v>96</v>
@@ -3730,28 +3924,28 @@
         <v>43928</v>
       </c>
       <c r="C22" t="s">
-        <v>337</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>338</v>
+        <v>28</v>
       </c>
       <c r="E22" t="s">
-        <v>461</v>
+        <v>31</v>
       </c>
       <c r="F22" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G22" t="s">
-        <v>325</v>
+        <v>33</v>
       </c>
       <c r="H22" t="s">
-        <v>340</v>
+        <v>35</v>
       </c>
       <c r="I22" t="s">
         <v>96</v>
       </c>
       <c r="J22" t="s">
-        <v>610</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -3768,7 +3962,7 @@
         <v>96</v>
       </c>
       <c r="E23" t="s">
-        <v>732</v>
+        <v>785</v>
       </c>
       <c r="F23" t="s">
         <v>98</v>
@@ -3780,10 +3974,10 @@
         <v>35</v>
       </c>
       <c r="I23" t="s">
-        <v>545</v>
+        <v>96</v>
       </c>
       <c r="J23" t="s">
-        <v>96</v>
+        <v>786</v>
       </c>
     </row>
   </sheetData>
